--- a/(1분반)2013136021_김영규_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2013136021_김영규_마이크로프로세서_재료구매신청서.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,7 +85,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신발 소독장</t>
+    <t>http://www.devicemart.co.kr/5860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALC1-09506T150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아두이노 4채널 릴레이 모듈 [ELB059993]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,15 +101,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아두이노 4채널 릴레이 모듈 [ELB059993]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/5880</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FALS1-03103T150</t>
+    <t>DHT11 온습도 센서모듈 [SZH-EK024]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1278926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/8565</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FP-108F/12V-팬모터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SMPS]HS-100W-12V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/34707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1321192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (F/F) 20cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필립스 4W (G4T5X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>램프 부속품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=A650946579&amp;frm3=V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=B256723744&amp;frm3=V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발 제습&amp;소독기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,8 +285,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -267,16 +322,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>533933</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>105107</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1247775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -299,8 +354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11877675" y="866775"/>
-          <a:ext cx="3820058" cy="2381582"/>
+          <a:off x="7258050" y="2552700"/>
+          <a:ext cx="2371725" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -311,20 +366,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>55558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>629030</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133728</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2381249</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1262671</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -343,8 +398,272 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12382500" y="3505200"/>
-          <a:ext cx="2724530" cy="2705478"/>
+          <a:off x="7334250" y="1312858"/>
+          <a:ext cx="2276474" cy="1207113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2362199</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1228725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="3810000"/>
+          <a:ext cx="2343149" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1257300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="5067300"/>
+          <a:ext cx="2409825" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2362199</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="6343650"/>
+          <a:ext cx="2343149" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2343150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1200314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="7620000"/>
+          <a:ext cx="2314575" cy="1171739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1233515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="8877300"/>
+          <a:ext cx="2400300" cy="1214465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2371725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="10144125"/>
+          <a:ext cx="2352675" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -611,7 +930,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,16 +938,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="33.625" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="33.625" style="9" customWidth="1"/>
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -689,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -701,7 +1021,7 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -713,32 +1033,40 @@
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>13600</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
       <c r="E7" s="2">
         <f>C7*D7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>27200</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2">
@@ -751,144 +1079,156 @@
         <f>C8*D8</f>
         <v>15000</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>17</v>
+      <c r="F8" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>8200</v>
+        <v>3300</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E16" si="0">C9*D9</f>
-        <v>16400</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>19</v>
+        <f t="shared" ref="E9:E14" si="0">C9*D9</f>
+        <v>6600</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>7000</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>19440</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>19440</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>1500</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2900</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>2900</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>8000</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(E7:E14)</f>
+        <v>87640</v>
+      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1">
-        <f>SUM(E7:E16)</f>
-        <v>31400</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -900,11 +1240,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="F9" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F9" r:id="rId3"/>
+    <hyperlink ref="F10" r:id="rId4"/>
+    <hyperlink ref="F11" r:id="rId5"/>
+    <hyperlink ref="F12" r:id="rId6"/>
+    <hyperlink ref="F13" r:id="rId7"/>
+    <hyperlink ref="F14" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/(1분반)2013136021_김영규_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2013136021_김영규_마이크로프로세서_재료구매신청서.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2013136021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,14 +159,26 @@
   </si>
   <si>
     <t>토글스위치, LED, 330옴 저항, 7-Segment는 따로 구매를 해야 하는지, 구매를 하지 않아도 되는지 궁금합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펠티어 사용하려면 방열판 있는 팬으로 구입하세요 교수님과 상담 바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 필요 없습니다. 재료실에 있을거에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펠티어 온도 제어하려면 펠티어 면에 온도센서 부착해야 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +203,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +237,16 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -268,15 +311,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,6 +350,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -310,11 +362,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -943,7 +1006,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -951,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,72 +1028,72 @@
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>2013136021</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1053,29 +1116,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>13600</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <f>C7*D7</f>
         <v>27200</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1097,51 +1159,57 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="12">
         <v>3300</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="12">
         <f t="shared" ref="E9:E14" si="0">C9*D9</f>
         <v>6600</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="G9" s="12"/>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="12">
         <v>3500</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="12">
         <v>2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="12"/>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1163,7 +1231,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -1185,7 +1253,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>7</v>
       </c>
@@ -1207,7 +1275,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -1229,7 +1297,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
@@ -1243,19 +1311,26 @@
       <c r="F15" s="5"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="F17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="A16:XFD16"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/(1분반)2013136021_김영규_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2013136021_김영규_마이크로프로세서_재료구매신청서.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2013136021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,95 +85,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FALC1-09506T150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아두이노 4채널 릴레이 모듈 [ELB059993]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1310697</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHT11 온습도 센서모듈 [SZH-EK024]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1278926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/8565</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FP-108F/12V-팬모터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SMPS]HS-100W-12V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/34707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1321192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (F/F) 20cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필립스 4W (G4T5X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>램프 부속품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=A650946579&amp;frm3=V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=B256723744&amp;frm3=V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발 제습&amp;소독기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/36878</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.devicemart.co.kr/5860</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FALC1-09506T150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아두이노 4채널 릴레이 모듈 [ELB059993]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/1310697</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DHT11 온습도 센서모듈 [SZH-EK024]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/1278926</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/8565</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FP-108F/12V-팬모터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[SMPS]HS-100W-12V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/34707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/1321192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (F/F) 20cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필립스 4W (G4T5X)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>램프 부속품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=A650946579&amp;frm3=V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=B256723744&amp;frm3=V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신발 제습&amp;소독기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토글스위치, LED, 330옴 저항, 7-Segment는 따로 구매를 해야 하는지, 구매를 하지 않아도 되는지 궁금합니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펠티어 사용하려면 방열판 있는 팬으로 구입하세요 교수님과 상담 바람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매 필요 없습니다. 재료실에 있을거에요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펠티어 온도 제어하려면 펠티어 면에 온도센서 부착해야 합니다.</t>
+    <t xml:space="preserve">쿨러 구리스(Silver), 30g </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/38058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방열판
+60X60X12 (4핀 홀)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,24 +199,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,18 +215,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -311,21 +281,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,9 +314,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,22 +323,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
-    <cellStyle name="좋음" xfId="2" builtinId="26"/>
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -740,6 +696,94 @@
         <a:xfrm>
           <a:off x="7248525" y="10144125"/>
           <a:ext cx="2352675" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1219268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="11410950"/>
+          <a:ext cx="2400300" cy="1200218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2371724</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1230069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248524" y="12677775"/>
+          <a:ext cx="2352675" cy="1211019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1006,7 +1050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1014,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1028,72 +1072,72 @@
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>2013136021</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1116,33 +1160,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
         <v>13600</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f>C7*D7</f>
         <v>27200</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>15000</v>
@@ -1155,66 +1200,60 @@
         <v>15000</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>3</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="2">
+        <v>3300</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ref="E9:E16" si="0">C9*D9</f>
+        <v>6600</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12">
-        <v>3300</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3500</v>
+      </c>
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="12">
-        <f t="shared" ref="E9:E14" si="0">C9*D9</f>
-        <v>6600</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="12">
-        <v>3500</v>
-      </c>
-      <c r="D10" s="12">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>19440</v>
@@ -1227,16 +1266,16 @@
         <v>19440</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>1500</v>
@@ -1249,16 +1288,16 @@
         <v>1500</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3">
         <v>2900</v>
@@ -1271,16 +1310,16 @@
         <v>2900</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
         <v>8000</v>
@@ -1293,40 +1332,71 @@
         <v>8000</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1" t="s">
+    <row r="15" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>9</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1090</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>1090</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>10</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2300</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="1">
-        <f>SUM(E7:E14)</f>
-        <v>87640</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="E17" s="1">
+        <f>SUM(E7:E16)</f>
+        <v>91030</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A16:XFD16"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B2:G2"/>
@@ -1342,9 +1412,11 @@
     <hyperlink ref="F12" r:id="rId6"/>
     <hyperlink ref="F13" r:id="rId7"/>
     <hyperlink ref="F14" r:id="rId8"/>
+    <hyperlink ref="F15" r:id="rId9"/>
+    <hyperlink ref="F16" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/(1분반)2013136021_김영규_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2013136021_김영규_마이크로프로세서_재료구매신청서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,71 +85,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FALC1-09506T150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아두이노 4채널 릴레이 모듈 [ELB059993]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1310697</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/8565</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FP-108F/12V-팬모터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SMPS]HS-100W-12V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/34707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필립스 4W (G4T5X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>램프 부속품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=A650946579&amp;frm3=V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=B256723744&amp;frm3=V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발 제습&amp;소독기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/36878</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.devicemart.co.kr/5860</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FALC1-09506T150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아두이노 4채널 릴레이 모듈 [ELB059993]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/1310697</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DHT11 온습도 센서모듈 [SZH-EK024]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/1278926</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/8565</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FP-108F/12V-팬모터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[SMPS]HS-100W-12V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/34707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/1321192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (F/F) 20cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필립스 4W (G4T5X)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>램프 부속품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=A650946579&amp;frm3=V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=B256723744&amp;frm3=V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신발 제습&amp;소독기</t>
+    <t xml:space="preserve">쿨러 구리스(Silver), 30g </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/38058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방열판
+60X60X12 (4핀 홀)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +194,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +283,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -284,21 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -413,13 +429,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2362199</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1228725</xdr:rowOff>
+      <xdr:rowOff>1209675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -456,13 +472,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2419350</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1257300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -500,13 +516,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2362199</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1219200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -544,14 +560,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2343150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1200314</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1171739</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -588,13 +604,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2419350</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1233515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -632,13 +648,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2371725</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1219200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -664,6 +680,94 @@
         <a:xfrm>
           <a:off x="7248525" y="10144125"/>
           <a:ext cx="2352675" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1219268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="11410950"/>
+          <a:ext cx="2400300" cy="1200218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2371724</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1230069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248524" y="12677775"/>
+          <a:ext cx="2352675" cy="1211019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -930,7 +1034,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -940,15 +1044,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="33.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="33.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -956,72 +1060,72 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="11">
         <v>2013136021</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1033,7 +1137,7 @@
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1044,8 +1148,8 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>13600</v>
@@ -1057,8 +1161,8 @@
         <f>C7*D7</f>
         <v>27200</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>16</v>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1066,8 +1170,8 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>15000</v>
@@ -1079,164 +1183,164 @@
         <f>C8*D8</f>
         <v>15000</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>19</v>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E14" si="0">C9*D9</f>
-        <v>6600</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>21</v>
+        <v>7000</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="2">
-        <v>3500</v>
+        <v>19440</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>7000</v>
-      </c>
-      <c r="F10" s="10" t="s">
+        <v>19440</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2">
-        <v>19440</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2900</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>19440</v>
-      </c>
-      <c r="F11" s="10" t="s">
+        <v>2900</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="F12" s="10" t="s">
+        <v>8000</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="8">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1090</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>1090</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6">
-        <v>2900</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2300</v>
+      </c>
+      <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>2900</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>2300</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="8"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(E7:E14)</f>
-        <v>87640</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>82930</v>
+      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/(1분반)2013136021_김영규_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2013136021_김영규_마이크로프로세서_재료구매신청서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,14 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DHT11 온습도 센서모듈 [SZH-EK024]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/1278926</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.devicemart.co.kr/8565</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,14 +110,6 @@
   </si>
   <si>
     <t>http://www.devicemart.co.kr/34707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/1321192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (F/F) 20cm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -314,6 +298,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -322,15 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -445,13 +429,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2362199</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1228725</xdr:rowOff>
+      <xdr:rowOff>1209675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -488,13 +472,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2419350</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1257300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -532,13 +516,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2362199</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1219200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -576,14 +560,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2343150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1200314</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1171739</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -620,13 +604,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2419350</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1233515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -664,13 +648,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2371725</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1219200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -708,13 +692,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2419350</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1219268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -752,13 +736,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2371724</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1230069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1050,7 +1034,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1058,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1076,66 +1060,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="11">
         <v>2013136021</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1178,7 +1162,7 @@
         <v>27200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1206,193 +1190,149 @@
     </row>
     <row r="9" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E16" si="0">C9*D9</f>
-        <v>6600</v>
+        <f t="shared" ref="E9:E14" si="0">C9*D9</f>
+        <v>7000</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
-        <v>3500</v>
+        <v>19440</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>19440</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2">
-        <v>19440</v>
+      <c r="C11" s="3">
+        <v>2900</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>19440</v>
+        <v>2900</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2900</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="8">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1090</v>
+      </c>
+      <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>2900</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>9</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1090</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>1090</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="F13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8">
         <v>2300</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
+      <c r="F14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="1">
-        <f>SUM(E7:E16)</f>
-        <v>91030</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="2"/>
+      <c r="E15" s="1">
+        <f>SUM(E7:E14)</f>
+        <v>82930</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1412,11 +1352,9 @@
     <hyperlink ref="F12" r:id="rId6"/>
     <hyperlink ref="F13" r:id="rId7"/>
     <hyperlink ref="F14" r:id="rId8"/>
-    <hyperlink ref="F15" r:id="rId9"/>
-    <hyperlink ref="F16" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>